--- a/2-working-with-multiple-groups/mpg-solution.xlsx
+++ b/2-working-with-multiple-groups/mpg-solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\2-working-with-multiple-groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA8CF2-CF7E-4562-9955-4AAD94E769FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A509DB52-9823-4B6B-9FD8-0918BBD49A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{0059BE41-D7BD-49CF-A6A3-546C812FE9FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0059BE41-D7BD-49CF-A6A3-546C812FE9FC}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="316">
   <si>
     <t>chevrolet chevelle malibu</t>
   </si>
@@ -991,8 +991,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1008,7 +1016,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1016,12 +1024,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,6 +1070,3386 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relationship between weight and acceleration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mpg!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acceleration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mpg!$C$2:$C$399</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="398"/>
+                <c:pt idx="0">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4425</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3563</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3609</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3761</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2833</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2774</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2672</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4615</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4382</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4732</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2634</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3329</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3302</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3288</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4209</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4464</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4154</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4955</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4746</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2962</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3282</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3139</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1613</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2254</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2226</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4274</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4385</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4135</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4129</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3672</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4633</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4502</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4456</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4422</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3892</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4098</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4294</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4077</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2933</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2979</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2288</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3672</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3988</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4042</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3777</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4464</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4363</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4237</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4735</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4951</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3821</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3121</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3278</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2904</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4997</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4906</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4654</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4499</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2789</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2124</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2472</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4082</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2582</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2868</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2807</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3664</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3102</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2875</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3336</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2542</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3781</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3632</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3613</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4699</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4457</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4638</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4257</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2219</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1649</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2489</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3264</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3459</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3432</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4498</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4657</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3907</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3897</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3730</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3785</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3169</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2639</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2914</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2223</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2984</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3211</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2694</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2957</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2464</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2572</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2202</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4190</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3962</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3085</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3574</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3645</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3193</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4380</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4055</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3870</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3755</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3880</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4060</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4140</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4295</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3520</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3425</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3525</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4220</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4165</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4325</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2755</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2815</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3365</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3735</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3535</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3155</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2965</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3430</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3380</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3425</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3445</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2745</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2855</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3140</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2795</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3725</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3955</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>4360</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3605</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3190</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2595</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2678</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3381</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2711</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2542</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2420</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2905</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>2490</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2385</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>2215</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>2380</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3415</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3725</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3060</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>3465</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>2605</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>2575</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>2525</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>2735</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>2865</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3035</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3015</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>2585</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>2835</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>2295</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>2720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mpg!$F$2:$F$399</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="398"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1032-4A24-92C6-0DF74F0FC519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1960032447"/>
+        <c:axId val="663957439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1960032447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663957439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663957439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1960032447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6992A51F-737A-4032-95F0-656E24BD8083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1338,7 +4751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477BF2E4-FC47-43A3-B33E-6D662FF1699E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1359,9 +4772,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FA6C60-191C-4AC8-AC89-516CF5AEADB1}">
-  <dimension ref="A1:I399"/>
+  <dimension ref="A1:R399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1375,7 +4790,7 @@
     <col min="9" max="9" width="34.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>306</v>
       </c>
@@ -1403,8 +4818,30 @@
       <c r="I1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -1432,8 +4869,20 @@
       <c r="I2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -1461,8 +4910,22 @@
       <c r="I3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.95072139013924428</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1490,8 +4953,24 @@
       <c r="I4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.89601679545339574</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.93282414684163451</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1519,8 +4998,26 @@
       <c r="I5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-0.7753962854205555</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-0.80420282480589877</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-0.83174093324433529</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1548,8 +5045,28 @@
       <c r="I6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.84298335691865656</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.89725700184346702</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.86453773757414287</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-0.7784267838977752</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1577,8 +5094,30 @@
       <c r="I7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-0.50541948905217693</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-0.54368408350092989</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-0.41745731994039348</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.42028891210165037</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-0.68919551033423498</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1606,8 +5145,32 @@
       <c r="I8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-0.34874579661359467</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-0.37016416107932443</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-0.30656433428328972</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.57926713308330946</v>
+      </c>
+      <c r="P8" s="2">
+        <v>-0.41636147709998783</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.28813695429948982</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1636,7 +5199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1665,7 +5228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1694,7 +5257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1723,7 +5286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1752,7 +5315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1781,7 +5344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1810,7 +5373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -12929,6 +16492,20 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L3:L8 M4:M8 N5:N8 O6:O8 P7:P8 Q8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>